--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944e8936cc16f981/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944e8936cc16f981/Documents/GitHub/AA_Senior_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{CF4D9CDE-18D6-4349-AD02-87EA06C80C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9932EB80-9E4F-447A-973D-63BEAFDEEB43}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{CF4D9CDE-18D6-4349-AD02-87EA06C80C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7A9F00-3620-46DF-B5DC-E740DC21CDDF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19644" windowHeight="9924" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
@@ -116,8 +116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3809CC7A-DBA6-49C8-9FF1-EB24C8B81D4B}" name="Table2" displayName="Table2" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25" xr:uid="{3809CC7A-DBA6-49C8-9FF1-EB24C8B81D4B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3809CC7A-DBA6-49C8-9FF1-EB24C8B81D4B}" name="Table2" displayName="Table2" ref="A1:H27" totalsRowShown="0">
+  <autoFilter ref="A1:H27" xr:uid="{3809CC7A-DBA6-49C8-9FF1-EB24C8B81D4B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E07A40DC-AB46-48CF-9F5D-43A5B03AF9DC}" name="Date "/>
     <tableColumn id="2" xr3:uid="{3AA0B204-1684-46F3-BCFB-20D6480D31CD}" name="Hours Worked"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D3573-6649-4A27-B85E-88F6D29316DA}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,121 +474,173 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44823</v>
+        <v>44821</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44824</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44825</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44826</v>
+        <v>44824</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44827</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44828</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44829</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44830</v>
+        <v>44828</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44831</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44832</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44833</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44834</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44835</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44836</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44837</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44838</v>
+        <v>44836</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44839</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44840</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44841</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44842</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44843</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44844</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44845</v>
+        <v>44843</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>44846</v>
       </c>
     </row>

--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944e8936cc16f981/Documents/GitHub/AA_Senior_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{CF4D9CDE-18D6-4349-AD02-87EA06C80C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7A9F00-3620-46DF-B5DC-E740DC21CDDF}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{CF4D9CDE-18D6-4349-AD02-87EA06C80C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE75778E-54DF-498F-9395-A888A76A8A67}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19644" windowHeight="9924" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,6 +568,15 @@
       <c r="A12" s="1">
         <v>44831</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">

--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944e8936cc16f981/Documents/GitHub/AA_Senior_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiro\Desktop\ClassPoop\Sem10\CECS491A\AA_Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{CF4D9CDE-18D6-4349-AD02-87EA06C80C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE75778E-54DF-498F-9395-A888A76A8A67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0385F40-8F7B-447E-B70B-EFAF72E1E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19644" windowHeight="9924" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,6 +597,9 @@
       <c r="A16" s="1">
         <v>44835</v>
       </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">

--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiro\Desktop\ClassPoop\Sem10\CECS491A\AA_Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0385F40-8F7B-447E-B70B-EFAF72E1E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB163B8F-EEFF-4839-B5B0-53597D2569E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,57 +601,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44836</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44837</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44838</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44839</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44840</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44841</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44842</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44843</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44844</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44845</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44846</v>
       </c>

--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiro\Desktop\ClassPoop\Sem10\CECS491A\AA_Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB163B8F-EEFF-4839-B5B0-53597D2569E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8FE76-436B-4161-95AF-F60976680267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Abhay Input</t>
+  </si>
+  <si>
+    <t>4*</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,10 +616,16 @@
       <c r="A18" s="1">
         <v>44837</v>
       </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44838</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">

--- a/Task Log.xlsx
+++ b/Task Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiro\Desktop\ClassPoop\Sem10\CECS491A\AA_Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F8FE76-436B-4161-95AF-F60976680267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26395F8-24D0-4038-B6AE-224B411BD19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{85D7E512-3F92-4788-89F9-4F524849B938}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Abhay Input</t>
-  </si>
-  <si>
-    <t>4*</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +553,9 @@
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -577,6 +577,9 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -590,16 +593,25 @@
       <c r="A14" s="1">
         <v>44833</v>
       </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44834</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>2</v>
       </c>
@@ -608,6 +620,9 @@
       <c r="A17" s="1">
         <v>44836</v>
       </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
       <c r="H17">
         <v>2</v>
       </c>
@@ -623,9 +638,6 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44838</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
